--- a/YAML-CREATION/EM/em.xlsx
+++ b/YAML-CREATION/EM/em.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\EM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E861A8-D776-44AA-A100-65029CCA5EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BABF6-0CD5-4E14-BD7A-A802885606E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3469,9 +3469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/YAML-CREATION/EM/em.xlsx
+++ b/YAML-CREATION/EM/em.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\EM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bos-tools\KYOTO-W-BOS\YAML-CREATION\EM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BABF6-0CD5-4E14-BD7A-A802885606E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6992F10-0EBB-485B-88CB-F1F3063B6DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">assets!$A$1:$V$995</definedName>
     <definedName name="Z_8F6BD52A_E505_4548_B6D8_1C41231C888E_.wvu.FilterData" localSheetId="1">assets!$A$1:$V$995</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2898,7 +2898,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2910,7 +2910,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3469,9 +3469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4030,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A49"/>
     </sheetView>
